--- a/dati/2025/input/MEF.xlsx
+++ b/dati/2025/input/MEF.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="MEF" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -636,42 +636,46 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -683,38 +687,13 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Value" xfId="20"/>
-    <cellStyle name="Pivot Table Field" xfId="21"/>
-    <cellStyle name="Pivot Table Category" xfId="22"/>
-    <cellStyle name="Pivot Table Title" xfId="23"/>
-    <cellStyle name="Pivot Table Result" xfId="24"/>
-    <cellStyle name="Pivot Table Corner" xfId="25"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -965,837 +944,837 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="0" t="s">
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="0" t="s">
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="0" t="s">
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>167</v>
       </c>
     </row>
